--- a/output/StructureDefinition-NatlDir-Restriction.xlsx
+++ b/output/StructureDefinition-NatlDir-Restriction.xlsx
@@ -2608,7 +2608,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -2621,10 +2621,10 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>

--- a/output/StructureDefinition-NatlDir-Restriction.xlsx
+++ b/output/StructureDefinition-NatlDir-Restriction.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NatlDir Restriction</t>
+    <t>National Directory Endpoint Qry Exchange  Restriction</t>
   </si>
   <si>
     <t>Status</t>
@@ -2608,7 +2608,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -2621,10 +2621,10 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>

--- a/output/StructureDefinition-NatlDir-Restriction.xlsx
+++ b/output/StructureDefinition-NatlDir-Restriction.xlsx
@@ -1468,25 +1468,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="121.80078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.8046875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.9921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="45.61328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="28.96484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.96875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/output/StructureDefinition-NatlDir-Restriction.xlsx
+++ b/output/StructureDefinition-NatlDir-Restriction.xlsx
@@ -4280,7 +4280,7 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>89</v>

--- a/output/StructureDefinition-NatlDir-Restriction.xlsx
+++ b/output/StructureDefinition-NatlDir-Restriction.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
